--- a/data/trans_bre/P20D1_R_2023-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P20D1_R_2023-Dificultad-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>17.2929453381646</v>
+        <v>17.29294533816461</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.5869464248337839</v>
+        <v>0.5869464248337843</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-18.29236070023718</v>
+        <v>-18.14061710961656</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.4961269062495773</v>
+        <v>-0.4892901086232457</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>53.52968321596957</v>
+        <v>52.97019242903157</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4.81612066524505</v>
+        <v>4.408992253487809</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>35.27218188964396</v>
+        <v>35.27218188964395</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7.672414544932617</v>
+        <v>7.672414544932614</v>
       </c>
     </row>
     <row r="8">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>13.95360769023738</v>
+        <v>13.16321382628332</v>
       </c>
       <c r="D8" s="6" t="inlineStr"/>
     </row>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>54.32495679907579</v>
+        <v>54.59011194126438</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
     </row>
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>50.37390799392678</v>
+        <v>50.37390799392679</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8.700909942479816</v>
+        <v>8.70090994247982</v>
       </c>
     </row>
     <row r="11">
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>26.30453988781419</v>
+        <v>26.43070739259416</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1.118979229038742</v>
+        <v>1.478415840989066</v>
       </c>
     </row>
     <row r="12">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>72.35801639526036</v>
+        <v>71.7479574512539</v>
       </c>
       <c r="D12" s="6" t="inlineStr"/>
     </row>
@@ -687,7 +687,7 @@
         <v>47.29406739409517</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>3.773021791631217</v>
+        <v>3.773021791631218</v>
       </c>
     </row>
     <row r="14">
@@ -698,10 +698,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>18.80276886737254</v>
+        <v>19.49921187892705</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2241771819953911</v>
+        <v>0.1909583562756993</v>
       </c>
     </row>
     <row r="15">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>75.38728172848465</v>
+        <v>76.63028745089137</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21.30085120648143</v>
+        <v>28.12029097129671</v>
       </c>
     </row>
     <row r="16">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>37.89901748220221</v>
+        <v>37.89901748220223</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>2.873497007649099</v>
+        <v>2.8734970076491</v>
       </c>
     </row>
     <row r="17">
@@ -744,10 +744,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>24.97082010074968</v>
+        <v>24.93164775925231</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>1.16218568548205</v>
+        <v>1.135864840958186</v>
       </c>
     </row>
     <row r="18">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>53.1965618464745</v>
+        <v>54.07634675872862</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8.03356549217248</v>
+        <v>7.26080166068261</v>
       </c>
     </row>
     <row r="19">
